--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>438336.2585840486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.0792623895659</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +990,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,7 +1464,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>84.97365353379641</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,64 +2090,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.1056391339346</v>
       </c>
       <c r="C21" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,70 +2236,70 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,70 +2318,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,10 +2412,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>74.18006676291769</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,61 +2567,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>112.9530144358239</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,61 +2804,61 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.05756064065922</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>65.1306020652372</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="X33" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>115.5785074418532</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.314269821847303</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>81.94696239689884</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>51.72215467797748</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>59.0643807471702</v>
+        <v>149.3895849832728</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3974,70 +3974,70 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>18.55597406227229</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>68.37747039897646</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>627.9339654430905</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4601,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>703.7721529630483</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>554.837743301797</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4653,10 +4653,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4720,10 +4720,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,43 +4890,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
         <v>110.334904905842</v>
@@ -5121,19 +5121,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5224,13 +5224,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.58726043968704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C14" t="n">
-        <v>30.58726043968704</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D14" t="n">
-        <v>30.58726043968704</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E14" t="n">
-        <v>30.58726043968704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F14" t="n">
-        <v>30.58726043968704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G14" t="n">
-        <v>30.58726043968704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H14" t="n">
-        <v>30.58726043968704</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>274.0360370837871</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>274.0360370837871</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W14" t="n">
-        <v>30.58726043968704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X14" t="n">
-        <v>30.58726043968704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.58726043968704</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G15" t="n">
-        <v>196.166878172303</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,16 +5358,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5692,28 +5692,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C20" t="n">
-        <v>348.0024326625565</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>348.0024326625565</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>348.0024326625565</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>104.5536560184564</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>591.4512093066566</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W20" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>591.4512093066566</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7954424002585</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6023,10 +6023,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
         <v>720.6083788665362</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>305.3006591534979</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C24" t="n">
-        <v>305.3006591534979</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D24" t="n">
-        <v>305.3006591534979</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>305.3006591534979</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W24" t="n">
-        <v>889.1277951440527</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X24" t="n">
-        <v>681.2762949385199</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y24" t="n">
-        <v>473.515996173566</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="25">
@@ -6181,13 +6181,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>439.147110064363</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9096550589075</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.3750970857925</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,7 +6309,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>234.810827406191</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>254.7627320334886</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>108.2281740603736</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>898.2686685760532</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>670.0450503124422</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>109.8523314442283</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>140.7925626906184</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>27.42342709819773</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="37">
@@ -7114,22 +7114,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V38" t="n">
-        <v>485.167420504237</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y38" t="n">
-        <v>485.167420504237</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>881.2824460188192</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>679.0958513775852</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>253.395163045047</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>78.94213376392</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>78.94213376392</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>461.2466632505798</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>253.395163045047</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>253.395163045047</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>417.752636919763</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C45" t="n">
-        <v>417.752636919763</v>
+        <v>38.02455125392211</v>
       </c>
       <c r="D45" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>793.8194741453639</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>793.8194741453639</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X45" t="n">
-        <v>585.967973939831</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y45" t="n">
-        <v>585.967973939831</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,10 +8070,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,10 +8781,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9015,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.4049153562469</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>39.45392126030143</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22729,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,10 +22841,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22878,7 +22878,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>218.5474650704376</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>27.26179070270005</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23464,7 +23464,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,22 +23859,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>101.0346019561178</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0.4275445159327091</v>
       </c>
       <c r="C21" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,25 +24206,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>177.5149163980019</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>194.4189411335972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>24.39050272738669</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.28595652255142</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>135.0341266295844</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,19 +24926,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>108.6003065196844</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,22 +24999,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>105.5016835490461</v>
       </c>
       <c r="X33" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>57.12999154646258</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>82.08236302956777</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,13 +25366,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>391.48972136523</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25439,19 +25439,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>89.73620870693898</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>363.5805828371576</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>98.58069970823075</v>
+        <v>8.255495472128132</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,25 +25907,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,13 +25944,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.8890915023665</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,7 +25962,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>164.4231167504488</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674311</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223277</v>
       </c>
       <c r="C2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223286</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="K2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223277</v>
-      </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
         <v>91388.36989223279</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078054</v>
+        <v>-37841.8629007806</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076719</v>
+        <v>42927.56863076714</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076718</v>
+        <v>42927.5686307672</v>
       </c>
       <c r="E6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076719</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076722</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166096</v>
+        <v>13495.22603166095</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076715</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076715</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076713</v>
+        <v>76555.16863076719</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
         <v>76555.16863076715</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,13 +35021,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35501,10 +35501,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,10 +35735,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,10 +35969,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840486</v>
+        <v>440041.0145983154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.0792623895659</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,58 +1144,58 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1376,61 +1378,61 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1610,70 +1612,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.809496073036132</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.1056391339346</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>113.1682173871407</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -2418,7 +2420,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,10 +2450,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>21.0507685937734</v>
+        <v>98.57027068784132</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>112.9530144358239</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,43 +2733,43 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>135.4320983106454</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>88.05756064065922</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2947,55 +2949,55 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>230.8744955960827</v>
-      </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>146.1932996118735</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>144.6060349495346</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3363,7 +3365,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>7.314269821847303</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3393,10 +3395,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3515,55 +3517,55 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>23.81301614990503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3585,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.17776988666324</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,46 +3675,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C41" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3822,10 +3824,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>149.3895849832728</v>
+        <v>1.944519418634081</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="T44" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>18.55597406227229</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>149.3895849832728</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4144,61 +4146,61 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4358,13 +4360,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
         <v>262.7299197543128</v>
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>627.9339654430905</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>453.4809361619635</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4421,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4603,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
         <v>817.1412885554689</v>
@@ -5121,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>509.4769954460863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>509.4769954460863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X14" t="n">
-        <v>752.9257720901863</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y14" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>23.90796037760316</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>23.90796037760316</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>23.90796037760316</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5498,19 +5500,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5700,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>849.7458248165547</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>849.7458248165547</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>621.5222065529438</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="W21" t="n">
-        <v>533.6469426057913</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X21" t="n">
-        <v>325.7954424002585</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y21" t="n">
-        <v>325.7954424002585</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6098,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>668.2068788942177</v>
+        <v>589.9043515264723</v>
       </c>
       <c r="U24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="V24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="W24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y24" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="25">
@@ -6178,7 +6180,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.0815197256143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>588.0815197256143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>439.147110064363</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>279.9096550589075</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3750970857925</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C30" t="n">
-        <v>414.0001870389441</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D30" t="n">
-        <v>414.0001870389441</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E30" t="n">
-        <v>254.7627320334886</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>108.2281740603736</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="31">
@@ -6643,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>816.3871559026832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C33" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>816.3871559026832</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>816.3871559026832</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>816.3871559026832</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C35" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6977,7 +6979,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
         <v>720.6083788665362</v>
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.5233881080029</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C36" t="n">
-        <v>279.5233881080029</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D36" t="n">
-        <v>279.5233881080029</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="E36" t="n">
-        <v>279.5233881080029</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>279.5233881080029</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>140.7925626906184</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>27.42342709819773</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y36" t="n">
-        <v>279.5233881080029</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>499.3853800778592</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>940.6452667362289</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>767.2279221868978</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>565.0413275456638</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7470,7 +7472,7 @@
         <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>170.1797138003873</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7497,7 +7499,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7600,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7670,25 +7672,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
         <v>262.7299197543128</v>
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>212.4775805350491</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C45" t="n">
-        <v>38.02455125392211</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7737,13 +7739,13 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>380.6929175551172</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7846,10 +7848,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8067,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>186.8580120236956</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11385,7 +11387,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22598,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.45392126030143</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,25 +23302,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23498,10 +23500,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>8.683973297415827</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,13 +24016,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>148.0596218681135</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24031,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4275445159327091</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>58.51495371669708</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24169,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24306,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>179.1139601010482</v>
+        <v>101.5944580069803</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24418,10 +24420,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>24.39050272738669</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>37.27640067767032</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.28595652255142</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>108.6003065196844</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,13 +24973,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>105.5016835490461</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25239,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>13.03904550586634</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>82.08236302956777</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>391.48972136523</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25473,13 +25475,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>76.98006426597989</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25710,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>8.255495472128132</v>
+        <v>155.7005610367669</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.8890915023665</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>8.255495472128132</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,7 +26006,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.8629007806</v>
+        <v>-37841.86290078056</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076714</v>
+        <v>42927.56863076719</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.5686307672</v>
+        <v>42927.56863076716</v>
       </c>
       <c r="E6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="F6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="H6" t="n">
         <v>76555.16863076719</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76555.16863076715</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166095</v>
+        <v>13495.22603166096</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="M6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="N6" t="n">
         <v>76555.16863076719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76555.16863076716</v>
       </c>
       <c r="O6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076715</v>
+        <v>76555.16863076718</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34787,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,10 +35892,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38105,7 +38107,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983154</v>
+        <v>337788.7049113788</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>27.82478434918821</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,49 +834,49 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27.44407725673867</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1031,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>55.57566235103583</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,20 +1609,20 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.00196265297499</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S21" t="n">
-        <v>113.1682173871407</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>98.57027068784132</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>135.4320983106454</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
@@ -3091,7 +3091,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3268,70 +3268,70 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>88.93311775391584</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>144.6060349495346</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.17776988666324</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>146.175361316945</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>71.01467844038824</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.944519418634081</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>149.3895849832728</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4524,16 +4524,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>509.4769954460863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>266.0282188019862</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>907.9201228328222</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V11" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,10 +5129,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N12" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N12" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5235,7 +5235,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>50.59625690109655</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5621,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5697,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>132.7447050367114</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S21" t="n">
-        <v>849.7458248165547</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T21" t="n">
-        <v>849.7458248165547</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>621.5222065529438</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>386.3700983212011</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>386.3700983212011</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>589.9043515264723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>361.6807332628614</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>361.6807332628614</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>361.6807332628614</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6180,16 +6180,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C26" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D26" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="28">
@@ -6411,10 +6411,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>726.0875267598396</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>467.067986854209</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6879,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7025,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7089,7 +7089,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>565.0413275456638</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C39" t="n">
-        <v>565.0413275456638</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>416.1069178844125</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>256.869462878957</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>940.6452667362289</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>767.2279221868978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>565.0413275456638</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>565.0413275456638</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>565.0413275456638</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>565.0413275456638</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>565.0413275456638</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y39" t="n">
-        <v>565.0413275456638</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C42" t="n">
-        <v>170.1797138003873</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D42" t="n">
-        <v>21.24530413913604</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7733,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7842,10 +7842,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,19 +22631,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>119.6202812154505</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,16 +22679,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>139.0891063931287</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,16 +23074,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>116.107508752802</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23320,13 +23320,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>264.8211809382518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>114.0672497404089</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,13 +24016,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,10 +24031,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9120424101793</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S21" t="n">
-        <v>58.51495371669708</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>101.5944580069803</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24448,25 +24448,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24508,7 +24508,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>67.1422986804247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>159.7554580391757</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>37.27640067767032</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,13 +24934,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
@@ -24979,7 +24979,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25174,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,28 +25198,28 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>162.4125351539207</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25241,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>13.03904550586634</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>289.7791746539352</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,7 +25438,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25447,10 +25447,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25475,13 +25475,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.98006426597989</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>59.59762388653243</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>283.6683631802947</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25687,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>155.7005610367669</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>8.255495472128132</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26082,13 +26082,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-50059.87352082103</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076719</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.55801072673</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166096</v>
+        <v>1277.215411620484</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072674</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
     </row>
   </sheetData>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>169.9067907798017</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
